--- a/Report.xlsx
+++ b/Report.xlsx
@@ -104,12 +104,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Research report'!$A$1:$A$50</c:f>
+              <c:f>'Research report'!$A$1:$A$20</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Research report'!$B$1:$B$50</c:f>
+              <c:f>'Research report'!$B$1:$B$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -227,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -238,399 +238,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>7549</v>
+        <v>808456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="B2" s="0">
-        <v>1269</v>
+        <v>100678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="0">
-        <v>388</v>
+        <v>30506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="B4" s="0">
-        <v>204</v>
+        <v>19988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="B5" s="0">
-        <v>146</v>
+        <v>10256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="B6" s="0">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="B7" s="0">
-        <v>33</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.35</v>
       </c>
       <c r="B8" s="0">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="B9" s="0">
-        <v>61</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="B10" s="0">
-        <v>57</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="0">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.55</v>
       </c>
       <c r="B12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="B13" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="B17" s="0">
-        <v>43</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.85</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.9</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.95</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B22" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B23" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>42</v>
+        <v>8061</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -104,12 +104,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Research report'!$A$1:$A$20</c:f>
+              <c:f>'Research report'!$A$1:$A$100</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Research report'!$B$1:$B$20</c:f>
+              <c:f>'Research report'!$B$1:$B$100</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -227,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -238,100 +238,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>808456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>100678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B3" s="0">
-        <v>30506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="B4" s="0">
-        <v>19988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="B5" s="0">
-        <v>10256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="B6" s="0">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="B7" s="0">
-        <v>10026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.35</v>
+        <v>0.07</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="B9" s="0">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
       <c r="B10" s="0">
-        <v>9633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B11" s="0">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="B12" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -339,58 +339,698 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="B14" s="0">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
       <c r="B15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="B16" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="B17" s="0">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="B18" s="0">
-        <v>317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="B19" s="0">
-        <v>1035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>0.19</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B21" s="0">
+        <v>31431</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.21</v>
+      </c>
+      <c r="B22" s="0">
+        <v>31375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B23" s="0">
+        <v>62723</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.23</v>
+      </c>
+      <c r="B24" s="0">
+        <v>124926</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B27" s="0">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.27</v>
+      </c>
+      <c r="B28" s="0">
+        <v>16215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B29" s="0">
+        <v>15698</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.29</v>
+      </c>
+      <c r="B30" s="0">
+        <v>54449</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B31" s="0">
+        <v>101440</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.31</v>
+      </c>
+      <c r="B32" s="0">
+        <v>23266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.35</v>
+      </c>
+      <c r="B36" s="0">
+        <v>19515</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B37" s="0">
+        <v>19018</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.37</v>
+      </c>
+      <c r="B38" s="0">
+        <v>10498</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B39" s="0">
+        <v>7922</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.39</v>
+      </c>
+      <c r="B40" s="0">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B41" s="0">
+        <v>18910</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.41</v>
+      </c>
+      <c r="B42" s="0">
+        <v>31147</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B43" s="0">
+        <v>12443</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.43</v>
+      </c>
+      <c r="B44" s="0">
+        <v>50328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B45" s="0">
+        <v>59144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B46" s="0">
+        <v>15678</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.47</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.49</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.51</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.53</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B55" s="0">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B56" s="0">
+        <v>14789</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B57" s="0">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B59" s="0">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.59</v>
+      </c>
+      <c r="B60" s="0">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B61" s="0">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.61</v>
+      </c>
+      <c r="B62" s="0">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B63" s="0">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.63</v>
+      </c>
+      <c r="B64" s="0">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B65" s="0">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.67</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B69" s="0">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.69</v>
+      </c>
+      <c r="B70" s="0">
+        <v>25351</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B71" s="0">
+        <v>13612</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.71</v>
+      </c>
+      <c r="B72" s="0">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B73" s="0">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0.73</v>
+      </c>
+      <c r="B74" s="0">
+        <v>9692</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B77" s="0">
+        <v>31053</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0.77</v>
+      </c>
+      <c r="B78" s="0">
+        <v>15529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B79" s="0">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0.79</v>
+      </c>
+      <c r="B80" s="0">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B81" s="0">
+        <v>16526</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>0.81</v>
+      </c>
+      <c r="B82" s="0">
+        <v>31379</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B83" s="0">
+        <v>14429</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>0.83</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>0.89</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>0.91</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>0.93</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
         <v>0.95</v>
       </c>
-      <c r="B20" s="0">
-        <v>8061</v>
+      <c r="B96" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>0.97</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -6,20 +6,33 @@
   </bookViews>
   <sheets>
     <sheet name="Research report" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -46,6 +59,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,12 +118,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Research report'!$A$1:$A$20</c:f>
+              <c:f>Source!$A$2:$A$22</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Research report'!$B$1:$B$20</c:f>
+              <c:f>Source!$B$2:$B$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -194,16 +208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
@@ -227,174 +241,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <sheetProtection sheet="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0">
-        <v>808456</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>100678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="B3" s="0">
-        <v>30506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="0">
-        <v>19988</v>
+        <v>34197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="B5" s="0">
-        <v>10256</v>
+        <v>21423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="B6" s="0">
-        <v>207</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="0">
-        <v>10026</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="B9" s="0">
-        <v>304</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="B10" s="0">
-        <v>9633</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="B11" s="0">
-        <v>104</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="0">
-        <v>3</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="B14" s="0">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="B15" s="0">
-        <v>3</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="B16" s="0">
-        <v>110</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="B17" s="0">
-        <v>214</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="B18" s="0">
-        <v>317</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="B19" s="0">
-        <v>1035</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>0.95</v>
       </c>
-      <c r="B20" s="0">
-        <v>8061</v>
+      <c r="B21" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -13,12 +13,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Accuracy</t>
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -111,19 +117,24 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Continued fractions count</c:v>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Source!$A$2:$A$22</c:f>
+              <c:f>Source!$A$2:$A$102</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Source!$B$2:$B$22</c:f>
+              <c:f>Source!$C$2:$C$102</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -246,7 +257,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <sheetProtection sheet="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -254,7 +264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -267,6 +277,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -275,161 +291,1400 @@
       <c r="B2" s="0">
         <v>0</v>
       </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B4" s="0">
-        <v>34197</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="B5" s="0">
-        <v>21423</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="B6" s="0">
-        <v>10946</v>
+        <v>20953</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.20953</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.20953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="B7" s="0">
-        <v>2388</v>
+        <v>12576</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.12576</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.33529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="B8" s="0">
-        <v>9378</v>
+        <v>8498</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.08498</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.42027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.35</v>
+        <v>0.07</v>
       </c>
       <c r="B9" s="0">
-        <v>677</v>
+        <v>7962</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.07962</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.49988999999999995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="B10" s="0">
-        <v>3624</v>
+        <v>5346</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.05346</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.5533499999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
       <c r="B11" s="0">
-        <v>6323</v>
+        <v>7043</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.07043</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.6237799999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B12" s="0">
-        <v>671</v>
+        <v>1704</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.01704</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.64082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="B13" s="0">
-        <v>380</v>
+        <v>2774</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.02774</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.6685599999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="B14" s="0">
-        <v>77</v>
+        <v>3859</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.03859</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.70715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="B15" s="0">
-        <v>1017</v>
+        <v>885</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.00885</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
       <c r="B16" s="0">
-        <v>277</v>
+        <v>3233</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.03233</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.7483299999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="B17" s="0">
-        <v>1298</v>
+        <v>397</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.00397</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.7523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="B18" s="0">
-        <v>2311</v>
+        <v>3840</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.0384</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.7907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="B19" s="0">
-        <v>3766</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.0003</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.7909999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="B20" s="0">
-        <v>1247</v>
+        <v>344</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.00344</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.7944399999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
+        <v>0.19</v>
+      </c>
+      <c r="B21" s="0">
+        <v>3673</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.03673</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.83117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B22" s="0">
+        <v>141</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.00141</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.83258</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.21</v>
+      </c>
+      <c r="B23" s="0">
+        <v>14</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.00014</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.83272</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B24" s="0">
+        <v>169</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.00169</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.83441</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.23</v>
+      </c>
+      <c r="B25" s="0">
+        <v>538</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.00538</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.83979</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B26" s="0">
+        <v>3317</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.03317</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.8729600000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B27" s="0">
+        <v>143</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.00143</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.8743900000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B28" s="0">
+        <v>17</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.00017</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.8745600000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.27</v>
+      </c>
+      <c r="B29" s="0">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0">
+        <v>5E-05</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.8746100000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B30" s="0">
+        <v>139</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.00139</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.8760000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.29</v>
+      </c>
+      <c r="B31" s="0">
+        <v>24</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.00024</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.8762400000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B32" s="0">
+        <v>347</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.00347</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.8797100000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.31</v>
+      </c>
+      <c r="B33" s="0">
+        <v>549</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.00549</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.8852000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B34" s="0">
+        <v>3009</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.03009</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.91529</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="B35" s="0">
+        <v>59</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.00059</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.91588</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>71</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.00071</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.91659</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.35</v>
+      </c>
+      <c r="B37" s="0">
+        <v>22</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.00022</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.91681</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B38" s="0">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0">
+        <v>8E-05</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.91689</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.37</v>
+      </c>
+      <c r="B39" s="0">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.00011</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.917</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B40" s="0">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0">
+        <v>2E-05</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.9170200000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.39</v>
+      </c>
+      <c r="B41" s="0">
+        <v>6</v>
+      </c>
+      <c r="C41" s="0">
+        <v>6E-05</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.91708</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B42" s="0">
+        <v>162</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.00162</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.9187</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.41</v>
+      </c>
+      <c r="B43" s="0">
+        <v>14</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0.00014</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.91884</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B44" s="0">
+        <v>72</v>
+      </c>
+      <c r="C44" s="0">
+        <v>0.00072</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.91956</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.43</v>
+      </c>
+      <c r="B45" s="0">
+        <v>78</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0.00078</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.92034</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B46" s="0">
+        <v>190</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.0019</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.9222400000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B47" s="0">
+        <v>185</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.00185</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.9240900000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B48" s="0">
+        <v>350</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0.0035</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.92759</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.47</v>
+      </c>
+      <c r="B49" s="0">
+        <v>717</v>
+      </c>
+      <c r="C49" s="0">
+        <v>0.00717</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.93476</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B50" s="0">
+        <v>2213</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.02213</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.95689</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.49</v>
+      </c>
+      <c r="B51" s="0">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0">
+        <v>8E-05</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0.95697</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0.95697</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.51</v>
+      </c>
+      <c r="B53" s="0">
+        <v>94</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.00094</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.95791</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B54" s="0">
+        <v>34</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.00034</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.95825</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.53</v>
+      </c>
+      <c r="B55" s="0">
+        <v>14</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.00014</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.9583900000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B56" s="0">
+        <v>5</v>
+      </c>
+      <c r="C56" s="0">
+        <v>5E-05</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.9584400000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B57" s="0">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0">
+        <v>5E-05</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.9584900000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0">
+        <v>3E-05</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.95852</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="B59" s="0">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0">
+        <v>3E-05</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.95855</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B60" s="0">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.95856</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.59</v>
+      </c>
+      <c r="B61" s="0">
+        <v>6</v>
+      </c>
+      <c r="C61" s="0">
+        <v>6E-05</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.9586199999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.9586199999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.61</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.9586199999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.9586199999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.63</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.9586299999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.9586299999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.9586399999999998</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B68" s="0">
+        <v>4</v>
+      </c>
+      <c r="C68" s="0">
+        <v>4E-05</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.9586799999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.67</v>
+      </c>
+      <c r="B69" s="0">
+        <v>116</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0.00116</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0.9598399999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B70" s="0">
+        <v>20</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0.0002</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0.9600399999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.69</v>
+      </c>
+      <c r="B71" s="0">
+        <v>12</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0.00012</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.9601599999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.9601699999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.71</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.9601799999999998</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B74" s="0">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0.9601899999999998</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0.73</v>
+      </c>
+      <c r="B75" s="0">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0">
+        <v>1E-05</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0.9601999999999997</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B76" s="0">
+        <v>9</v>
+      </c>
+      <c r="C76" s="0">
+        <v>9E-05</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.9602899999999998</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B77" s="0">
+        <v>144</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0.00144</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0.9617299999999998</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B78" s="0">
+        <v>22</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0.00022</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.9619499999999997</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0.77</v>
+      </c>
+      <c r="B79" s="0">
+        <v>7</v>
+      </c>
+      <c r="C79" s="0">
+        <v>7E-05</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.9620199999999998</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.9620199999999998</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>0.79</v>
+      </c>
+      <c r="B81" s="0">
+        <v>6</v>
+      </c>
+      <c r="C81" s="0">
+        <v>6E-05</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.9620799999999997</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B82" s="0">
+        <v>163</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0.00163</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.9637099999999997</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>0.81</v>
+      </c>
+      <c r="B83" s="0">
+        <v>12</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0.00012</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.9638299999999997</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.9638299999999997</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>0.83</v>
+      </c>
+      <c r="B85" s="0">
+        <v>160</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0.0016</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.9654299999999998</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B86" s="0">
+        <v>18</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0.00018</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.9656099999999997</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B87" s="0">
+        <v>149</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0.00149</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.9670999999999997</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B88" s="0">
+        <v>36</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0.00036</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.9674599999999998</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B89" s="0">
+        <v>180</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0.9692599999999998</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B90" s="0">
+        <v>106</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0.00106</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0.9703199999999997</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>0.89</v>
+      </c>
+      <c r="B91" s="0">
+        <v>66</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0.00066</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0.9709799999999997</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B92" s="0">
+        <v>323</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0.00323</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0.9742099999999997</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>0.91</v>
+      </c>
+      <c r="B93" s="0">
+        <v>225</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0.00225</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.9764599999999997</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B94" s="0">
+        <v>366</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0.00366</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.9801199999999997</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>0.93</v>
+      </c>
+      <c r="B95" s="0">
+        <v>376</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0.00376</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.9838799999999996</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B96" s="0">
+        <v>561</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0.00561</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.9894899999999996</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
         <v>0.95</v>
       </c>
-      <c r="B21" s="0">
-        <v>0</v>
+      <c r="B97" s="0">
+        <v>872</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.00872</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.9982099999999996</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B98" s="0">
+        <v>179</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.00179</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>0.97</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -345,13 +345,13 @@
         <v>0.04</v>
       </c>
       <c r="B6" s="0">
-        <v>20953</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.20953</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.20953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -359,13 +359,13 @@
         <v>0.05</v>
       </c>
       <c r="B7" s="0">
-        <v>12576</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="0">
-        <v>0.12576</v>
+        <v>0.0011876484560570072</v>
       </c>
       <c r="D7" s="0">
-        <v>0.33529</v>
+        <v>0.0011876484560570072</v>
       </c>
     </row>
     <row r="8">
@@ -373,13 +373,13 @@
         <v>0.06</v>
       </c>
       <c r="B8" s="0">
-        <v>8498</v>
+        <v>0.06</v>
       </c>
       <c r="C8" s="0">
-        <v>0.08498</v>
+        <v>0.0014251781472684084</v>
       </c>
       <c r="D8" s="0">
-        <v>0.42027</v>
+        <v>0.0026128266033254156</v>
       </c>
     </row>
     <row r="9">
@@ -387,13 +387,13 @@
         <v>0.07</v>
       </c>
       <c r="B9" s="0">
-        <v>7962</v>
+        <v>0.07</v>
       </c>
       <c r="C9" s="0">
-        <v>0.07962</v>
+        <v>0.0016627078384798101</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49988999999999995</v>
+        <v>0.004275534441805225</v>
       </c>
     </row>
     <row r="10">
@@ -401,13 +401,13 @@
         <v>0.08</v>
       </c>
       <c r="B10" s="0">
-        <v>5346</v>
+        <v>0.08</v>
       </c>
       <c r="C10" s="0">
-        <v>0.05346</v>
+        <v>0.0019002375296912114</v>
       </c>
       <c r="D10" s="0">
-        <v>0.5533499999999999</v>
+        <v>0.006175771971496437</v>
       </c>
     </row>
     <row r="11">
@@ -415,13 +415,13 @@
         <v>0.09</v>
       </c>
       <c r="B11" s="0">
-        <v>7043</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="0">
-        <v>0.07043</v>
+        <v>0.0021377672209026127</v>
       </c>
       <c r="D11" s="0">
-        <v>0.6237799999999999</v>
+        <v>0.00831353919239905</v>
       </c>
     </row>
     <row r="12">
@@ -429,13 +429,13 @@
         <v>0.1</v>
       </c>
       <c r="B12" s="0">
-        <v>1704</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="0">
-        <v>0.01704</v>
+        <v>0.0023752969121140144</v>
       </c>
       <c r="D12" s="0">
-        <v>0.64082</v>
+        <v>0.010688836104513065</v>
       </c>
     </row>
     <row r="13">
@@ -443,13 +443,13 @@
         <v>0.11</v>
       </c>
       <c r="B13" s="0">
-        <v>2774</v>
+        <v>0.11</v>
       </c>
       <c r="C13" s="0">
-        <v>0.02774</v>
+        <v>0.0026128266033254156</v>
       </c>
       <c r="D13" s="0">
-        <v>0.6685599999999999</v>
+        <v>0.013301662707838481</v>
       </c>
     </row>
     <row r="14">
@@ -457,13 +457,13 @@
         <v>0.12</v>
       </c>
       <c r="B14" s="0">
-        <v>3859</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.03859</v>
+        <v>0.0028503562945368164</v>
       </c>
       <c r="D14" s="0">
-        <v>0.70715</v>
+        <v>0.016152019002375298</v>
       </c>
     </row>
     <row r="15">
@@ -471,13 +471,13 @@
         <v>0.13</v>
       </c>
       <c r="B15" s="0">
-        <v>885</v>
+        <v>0.13</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00885</v>
+        <v>0.0030878859857482186</v>
       </c>
       <c r="D15" s="0">
-        <v>0.716</v>
+        <v>0.019239904988123516</v>
       </c>
     </row>
     <row r="16">
@@ -485,13 +485,13 @@
         <v>0.14</v>
       </c>
       <c r="B16" s="0">
-        <v>3233</v>
+        <v>0.14</v>
       </c>
       <c r="C16" s="0">
-        <v>0.03233</v>
+        <v>0.0033254156769596203</v>
       </c>
       <c r="D16" s="0">
-        <v>0.7483299999999999</v>
+        <v>0.022565320665083134</v>
       </c>
     </row>
     <row r="17">
@@ -499,13 +499,13 @@
         <v>0.15</v>
       </c>
       <c r="B17" s="0">
-        <v>397</v>
+        <v>0.15</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00397</v>
+        <v>0.003562945368171021</v>
       </c>
       <c r="D17" s="0">
-        <v>0.7523</v>
+        <v>0.026128266033254154</v>
       </c>
     </row>
     <row r="18">
@@ -513,13 +513,13 @@
         <v>0.16</v>
       </c>
       <c r="B18" s="0">
-        <v>3840</v>
+        <v>0.16</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0384</v>
+        <v>0.003800475059382423</v>
       </c>
       <c r="D18" s="0">
-        <v>0.7907</v>
+        <v>0.029928741092636577</v>
       </c>
     </row>
     <row r="19">
@@ -527,13 +527,13 @@
         <v>0.17</v>
       </c>
       <c r="B19" s="0">
-        <v>30</v>
+        <v>0.17</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0003</v>
+        <v>0.0040380047505938245</v>
       </c>
       <c r="D19" s="0">
-        <v>0.7909999999999999</v>
+        <v>0.0339667458432304</v>
       </c>
     </row>
     <row r="20">
@@ -541,13 +541,13 @@
         <v>0.18</v>
       </c>
       <c r="B20" s="0">
-        <v>344</v>
+        <v>0.18</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00344</v>
+        <v>0.004275534441805225</v>
       </c>
       <c r="D20" s="0">
-        <v>0.7944399999999999</v>
+        <v>0.038242280285035624</v>
       </c>
     </row>
     <row r="21">
@@ -555,13 +555,13 @@
         <v>0.19</v>
       </c>
       <c r="B21" s="0">
-        <v>3673</v>
+        <v>0.19</v>
       </c>
       <c r="C21" s="0">
-        <v>0.03673</v>
+        <v>0.004513064133016627</v>
       </c>
       <c r="D21" s="0">
-        <v>0.83117</v>
+        <v>0.04275534441805225</v>
       </c>
     </row>
     <row r="22">
@@ -569,13 +569,13 @@
         <v>0.2</v>
       </c>
       <c r="B22" s="0">
-        <v>141</v>
+        <v>0.2</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00141</v>
+        <v>0.004750593824228029</v>
       </c>
       <c r="D22" s="0">
-        <v>0.83258</v>
+        <v>0.047505938242280284</v>
       </c>
     </row>
     <row r="23">
@@ -583,13 +583,13 @@
         <v>0.21</v>
       </c>
       <c r="B23" s="0">
-        <v>14</v>
+        <v>0.21</v>
       </c>
       <c r="C23" s="0">
-        <v>0.00014</v>
+        <v>0.0049881235154394295</v>
       </c>
       <c r="D23" s="0">
-        <v>0.83272</v>
+        <v>0.052494061757719715</v>
       </c>
     </row>
     <row r="24">
@@ -597,13 +597,13 @@
         <v>0.22</v>
       </c>
       <c r="B24" s="0">
-        <v>169</v>
+        <v>0.22</v>
       </c>
       <c r="C24" s="0">
-        <v>0.00169</v>
+        <v>0.005225653206650831</v>
       </c>
       <c r="D24" s="0">
-        <v>0.83441</v>
+        <v>0.05771971496437055</v>
       </c>
     </row>
     <row r="25">
@@ -611,13 +611,13 @@
         <v>0.23</v>
       </c>
       <c r="B25" s="0">
-        <v>538</v>
+        <v>0.23</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00538</v>
+        <v>0.005463182897862233</v>
       </c>
       <c r="D25" s="0">
-        <v>0.83979</v>
+        <v>0.06318289786223277</v>
       </c>
     </row>
     <row r="26">
@@ -625,13 +625,13 @@
         <v>0.24</v>
       </c>
       <c r="B26" s="0">
-        <v>3317</v>
+        <v>0.24</v>
       </c>
       <c r="C26" s="0">
-        <v>0.03317</v>
+        <v>0.005700712589073634</v>
       </c>
       <c r="D26" s="0">
-        <v>0.8729600000000001</v>
+        <v>0.0688836104513064</v>
       </c>
     </row>
     <row r="27">
@@ -639,13 +639,13 @@
         <v>0.25</v>
       </c>
       <c r="B27" s="0">
-        <v>143</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="0">
-        <v>0.00143</v>
+        <v>0.0059382422802850355</v>
       </c>
       <c r="D27" s="0">
-        <v>0.8743900000000001</v>
+        <v>0.07482185273159145</v>
       </c>
     </row>
     <row r="28">
@@ -653,13 +653,13 @@
         <v>0.26</v>
       </c>
       <c r="B28" s="0">
-        <v>17</v>
+        <v>0.26</v>
       </c>
       <c r="C28" s="0">
-        <v>0.00017</v>
+        <v>0.006175771971496437</v>
       </c>
       <c r="D28" s="0">
-        <v>0.8745600000000001</v>
+        <v>0.08099762470308788</v>
       </c>
     </row>
     <row r="29">
@@ -667,13 +667,13 @@
         <v>0.27</v>
       </c>
       <c r="B29" s="0">
-        <v>5</v>
+        <v>0.27</v>
       </c>
       <c r="C29" s="0">
-        <v>5E-05</v>
+        <v>0.006413301662707839</v>
       </c>
       <c r="D29" s="0">
-        <v>0.8746100000000001</v>
+        <v>0.08741092636579573</v>
       </c>
     </row>
     <row r="30">
@@ -681,13 +681,13 @@
         <v>0.28</v>
       </c>
       <c r="B30" s="0">
-        <v>139</v>
+        <v>0.28</v>
       </c>
       <c r="C30" s="0">
-        <v>0.00139</v>
+        <v>0.0066508313539192405</v>
       </c>
       <c r="D30" s="0">
-        <v>0.8760000000000001</v>
+        <v>0.09406175771971496</v>
       </c>
     </row>
     <row r="31">
@@ -695,13 +695,13 @@
         <v>0.29</v>
       </c>
       <c r="B31" s="0">
-        <v>24</v>
+        <v>0.29</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00024</v>
+        <v>0.0068883610451306405</v>
       </c>
       <c r="D31" s="0">
-        <v>0.8762400000000001</v>
+        <v>0.10095011876484561</v>
       </c>
     </row>
     <row r="32">
@@ -709,13 +709,13 @@
         <v>0.3</v>
       </c>
       <c r="B32" s="0">
-        <v>347</v>
+        <v>0.3</v>
       </c>
       <c r="C32" s="0">
-        <v>0.00347</v>
+        <v>0.007125890736342042</v>
       </c>
       <c r="D32" s="0">
-        <v>0.8797100000000001</v>
+        <v>0.10807600950118765</v>
       </c>
     </row>
     <row r="33">
@@ -723,13 +723,13 @@
         <v>0.31</v>
       </c>
       <c r="B33" s="0">
-        <v>549</v>
+        <v>0.31</v>
       </c>
       <c r="C33" s="0">
-        <v>0.00549</v>
+        <v>0.007363420427553444</v>
       </c>
       <c r="D33" s="0">
-        <v>0.8852000000000001</v>
+        <v>0.1154394299287411</v>
       </c>
     </row>
     <row r="34">
@@ -737,13 +737,13 @@
         <v>0.32</v>
       </c>
       <c r="B34" s="0">
-        <v>3009</v>
+        <v>0.32</v>
       </c>
       <c r="C34" s="0">
-        <v>0.03009</v>
+        <v>0.007600950118764846</v>
       </c>
       <c r="D34" s="0">
-        <v>0.91529</v>
+        <v>0.12304038004750593</v>
       </c>
     </row>
     <row r="35">
@@ -751,13 +751,13 @@
         <v>0.33</v>
       </c>
       <c r="B35" s="0">
-        <v>59</v>
+        <v>0.33</v>
       </c>
       <c r="C35" s="0">
-        <v>0.00059</v>
+        <v>0.007838479809976246</v>
       </c>
       <c r="D35" s="0">
-        <v>0.91588</v>
+        <v>0.13087885985748218</v>
       </c>
     </row>
     <row r="36">
@@ -765,13 +765,13 @@
         <v>0.34</v>
       </c>
       <c r="B36" s="0">
-        <v>71</v>
+        <v>0.34</v>
       </c>
       <c r="C36" s="0">
-        <v>0.00071</v>
+        <v>0.008076009501187649</v>
       </c>
       <c r="D36" s="0">
-        <v>0.91659</v>
+        <v>0.13895486935866982</v>
       </c>
     </row>
     <row r="37">
@@ -779,13 +779,13 @@
         <v>0.35</v>
       </c>
       <c r="B37" s="0">
-        <v>22</v>
+        <v>0.35</v>
       </c>
       <c r="C37" s="0">
-        <v>0.00022</v>
+        <v>0.00831353919239905</v>
       </c>
       <c r="D37" s="0">
-        <v>0.91681</v>
+        <v>0.14726840855106887</v>
       </c>
     </row>
     <row r="38">
@@ -793,13 +793,13 @@
         <v>0.36</v>
       </c>
       <c r="B38" s="0">
-        <v>8</v>
+        <v>0.36</v>
       </c>
       <c r="C38" s="0">
-        <v>8E-05</v>
+        <v>0.00855106888361045</v>
       </c>
       <c r="D38" s="0">
-        <v>0.91689</v>
+        <v>0.15581947743467933</v>
       </c>
     </row>
     <row r="39">
@@ -807,13 +807,13 @@
         <v>0.37</v>
       </c>
       <c r="B39" s="0">
-        <v>11</v>
+        <v>0.37</v>
       </c>
       <c r="C39" s="0">
-        <v>0.00011</v>
+        <v>0.008788598574821851</v>
       </c>
       <c r="D39" s="0">
-        <v>0.917</v>
+        <v>0.16460807600950117</v>
       </c>
     </row>
     <row r="40">
@@ -821,13 +821,13 @@
         <v>0.38</v>
       </c>
       <c r="B40" s="0">
-        <v>2</v>
+        <v>0.38</v>
       </c>
       <c r="C40" s="0">
-        <v>2E-05</v>
+        <v>0.009026128266033254</v>
       </c>
       <c r="D40" s="0">
-        <v>0.9170200000000001</v>
+        <v>0.17363420427553442</v>
       </c>
     </row>
     <row r="41">
@@ -835,13 +835,13 @@
         <v>0.39</v>
       </c>
       <c r="B41" s="0">
-        <v>6</v>
+        <v>0.39</v>
       </c>
       <c r="C41" s="0">
-        <v>6E-05</v>
+        <v>0.009263657957244655</v>
       </c>
       <c r="D41" s="0">
-        <v>0.91708</v>
+        <v>0.18289786223277907</v>
       </c>
     </row>
     <row r="42">
@@ -849,13 +849,13 @@
         <v>0.4</v>
       </c>
       <c r="B42" s="0">
-        <v>162</v>
+        <v>0.4</v>
       </c>
       <c r="C42" s="0">
-        <v>0.00162</v>
+        <v>0.009501187648456057</v>
       </c>
       <c r="D42" s="0">
-        <v>0.9187</v>
+        <v>0.19239904988123513</v>
       </c>
     </row>
     <row r="43">
@@ -863,13 +863,13 @@
         <v>0.41</v>
       </c>
       <c r="B43" s="0">
-        <v>14</v>
+        <v>0.41</v>
       </c>
       <c r="C43" s="0">
-        <v>0.00014</v>
+        <v>0.009738717339667458</v>
       </c>
       <c r="D43" s="0">
-        <v>0.91884</v>
+        <v>0.2021377672209026</v>
       </c>
     </row>
     <row r="44">
@@ -877,13 +877,13 @@
         <v>0.42</v>
       </c>
       <c r="B44" s="0">
-        <v>72</v>
+        <v>0.42</v>
       </c>
       <c r="C44" s="0">
-        <v>0.00072</v>
+        <v>0.009976247030878859</v>
       </c>
       <c r="D44" s="0">
-        <v>0.91956</v>
+        <v>0.21211401425178145</v>
       </c>
     </row>
     <row r="45">
@@ -891,13 +891,13 @@
         <v>0.43</v>
       </c>
       <c r="B45" s="0">
-        <v>78</v>
+        <v>0.43</v>
       </c>
       <c r="C45" s="0">
-        <v>0.00078</v>
+        <v>0.01021377672209026</v>
       </c>
       <c r="D45" s="0">
-        <v>0.92034</v>
+        <v>0.2223277909738717</v>
       </c>
     </row>
     <row r="46">
@@ -905,13 +905,13 @@
         <v>0.44</v>
       </c>
       <c r="B46" s="0">
-        <v>190</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="C46" s="0">
-        <v>0.0019</v>
+        <v>0.010451306413301664</v>
       </c>
       <c r="D46" s="0">
-        <v>0.9222400000000001</v>
+        <v>0.23277909738717337</v>
       </c>
     </row>
     <row r="47">
@@ -919,13 +919,13 @@
         <v>0.45</v>
       </c>
       <c r="B47" s="0">
-        <v>185</v>
+        <v>0.45</v>
       </c>
       <c r="C47" s="0">
-        <v>0.00185</v>
+        <v>0.010688836104513063</v>
       </c>
       <c r="D47" s="0">
-        <v>0.9240900000000001</v>
+        <v>0.24346793349168644</v>
       </c>
     </row>
     <row r="48">
@@ -933,13 +933,13 @@
         <v>0.46</v>
       </c>
       <c r="B48" s="0">
-        <v>350</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>0.0035</v>
+        <v>0.010926365795724464</v>
       </c>
       <c r="D48" s="0">
-        <v>0.92759</v>
+        <v>0.2543942992874109</v>
       </c>
     </row>
     <row r="49">
@@ -947,13 +947,13 @@
         <v>0.47</v>
       </c>
       <c r="B49" s="0">
-        <v>717</v>
+        <v>0.47</v>
       </c>
       <c r="C49" s="0">
-        <v>0.00717</v>
+        <v>0.011163895486935867</v>
       </c>
       <c r="D49" s="0">
-        <v>0.93476</v>
+        <v>0.2655581947743468</v>
       </c>
     </row>
     <row r="50">
@@ -961,13 +961,13 @@
         <v>0.48</v>
       </c>
       <c r="B50" s="0">
-        <v>2213</v>
+        <v>0.48</v>
       </c>
       <c r="C50" s="0">
-        <v>0.02213</v>
+        <v>0.011401425178147268</v>
       </c>
       <c r="D50" s="0">
-        <v>0.95689</v>
+        <v>0.2769596199524941</v>
       </c>
     </row>
     <row r="51">
@@ -975,13 +975,13 @@
         <v>0.49</v>
       </c>
       <c r="B51" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0">
-        <v>8E-05</v>
+        <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0.95697</v>
+        <v>0.2769596199524941</v>
       </c>
     </row>
     <row r="52">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0.95697</v>
+        <v>0.2769596199524941</v>
       </c>
     </row>
     <row r="53">
@@ -1003,13 +1003,13 @@
         <v>0.51</v>
       </c>
       <c r="B53" s="0">
-        <v>94</v>
+        <v>0.51</v>
       </c>
       <c r="C53" s="0">
-        <v>0.00094</v>
+        <v>0.012114014251781472</v>
       </c>
       <c r="D53" s="0">
-        <v>0.95791</v>
+        <v>0.28907363420427556</v>
       </c>
     </row>
     <row r="54">
@@ -1017,13 +1017,13 @@
         <v>0.52</v>
       </c>
       <c r="B54" s="0">
-        <v>34</v>
+        <v>0.52</v>
       </c>
       <c r="C54" s="0">
-        <v>0.00034</v>
+        <v>0.012351543942992874</v>
       </c>
       <c r="D54" s="0">
-        <v>0.95825</v>
+        <v>0.30142517814726844</v>
       </c>
     </row>
     <row r="55">
@@ -1031,13 +1031,13 @@
         <v>0.53</v>
       </c>
       <c r="B55" s="0">
-        <v>14</v>
+        <v>0.53</v>
       </c>
       <c r="C55" s="0">
-        <v>0.00014</v>
+        <v>0.012589073634204275</v>
       </c>
       <c r="D55" s="0">
-        <v>0.9583900000000001</v>
+        <v>0.3140142517814727</v>
       </c>
     </row>
     <row r="56">
@@ -1045,13 +1045,13 @@
         <v>0.54</v>
       </c>
       <c r="B56" s="0">
-        <v>5</v>
+        <v>0.54</v>
       </c>
       <c r="C56" s="0">
-        <v>5E-05</v>
+        <v>0.012826603325415678</v>
       </c>
       <c r="D56" s="0">
-        <v>0.9584400000000001</v>
+        <v>0.3268408551068884</v>
       </c>
     </row>
     <row r="57">
@@ -1059,13 +1059,13 @@
         <v>0.55</v>
       </c>
       <c r="B57" s="0">
-        <v>5</v>
+        <v>0.55</v>
       </c>
       <c r="C57" s="0">
-        <v>5E-05</v>
+        <v>0.013064133016627079</v>
       </c>
       <c r="D57" s="0">
-        <v>0.9584900000000001</v>
+        <v>0.33990498812351544</v>
       </c>
     </row>
     <row r="58">
@@ -1073,13 +1073,13 @@
         <v>0.56</v>
       </c>
       <c r="B58" s="0">
-        <v>3</v>
+        <v>0.56</v>
       </c>
       <c r="C58" s="0">
-        <v>3E-05</v>
+        <v>0.013301662707838481</v>
       </c>
       <c r="D58" s="0">
-        <v>0.95852</v>
+        <v>0.35320665083135394</v>
       </c>
     </row>
     <row r="59">
@@ -1087,13 +1087,13 @@
         <v>0.57</v>
       </c>
       <c r="B59" s="0">
-        <v>3</v>
+        <v>0.57</v>
       </c>
       <c r="C59" s="0">
-        <v>3E-05</v>
+        <v>0.01353919239904988</v>
       </c>
       <c r="D59" s="0">
-        <v>0.95855</v>
+        <v>0.3667458432304038</v>
       </c>
     </row>
     <row r="60">
@@ -1101,13 +1101,13 @@
         <v>0.58</v>
       </c>
       <c r="B60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0.95856</v>
+        <v>0.3667458432304038</v>
       </c>
     </row>
     <row r="61">
@@ -1115,13 +1115,13 @@
         <v>0.59</v>
       </c>
       <c r="B61" s="0">
-        <v>6</v>
+        <v>0.59</v>
       </c>
       <c r="C61" s="0">
-        <v>6E-05</v>
+        <v>0.014014251781472684</v>
       </c>
       <c r="D61" s="0">
-        <v>0.9586199999999999</v>
+        <v>0.3807600950118765</v>
       </c>
     </row>
     <row r="62">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>0.9586199999999999</v>
+        <v>0.3807600950118765</v>
       </c>
     </row>
     <row r="63">
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>0.9586199999999999</v>
+        <v>0.3807600950118765</v>
       </c>
     </row>
     <row r="64">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>0.9586199999999999</v>
+        <v>0.3807600950118765</v>
       </c>
     </row>
     <row r="65">
@@ -1171,13 +1171,13 @@
         <v>0.63</v>
       </c>
       <c r="B65" s="0">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="C65" s="0">
-        <v>1E-05</v>
+        <v>0.014964370546318289</v>
       </c>
       <c r="D65" s="0">
-        <v>0.9586299999999999</v>
+        <v>0.3957244655581948</v>
       </c>
     </row>
     <row r="66">
@@ -1185,13 +1185,13 @@
         <v>0.64</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.015201900237529691</v>
       </c>
       <c r="D66" s="0">
-        <v>0.9586299999999999</v>
+        <v>0.4109263657957245</v>
       </c>
     </row>
     <row r="67">
@@ -1199,13 +1199,13 @@
         <v>0.65</v>
       </c>
       <c r="B67" s="0">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C67" s="0">
-        <v>1E-05</v>
+        <v>0.015439429928741092</v>
       </c>
       <c r="D67" s="0">
-        <v>0.9586399999999998</v>
+        <v>0.4263657957244656</v>
       </c>
     </row>
     <row r="68">
@@ -1213,13 +1213,13 @@
         <v>0.66</v>
       </c>
       <c r="B68" s="0">
-        <v>4</v>
+        <v>0.66</v>
       </c>
       <c r="C68" s="0">
-        <v>4E-05</v>
+        <v>0.015676959619952493</v>
       </c>
       <c r="D68" s="0">
-        <v>0.9586799999999999</v>
+        <v>0.44204275534441806</v>
       </c>
     </row>
     <row r="69">
@@ -1227,13 +1227,13 @@
         <v>0.67</v>
       </c>
       <c r="B69" s="0">
-        <v>116</v>
+        <v>0.67</v>
       </c>
       <c r="C69" s="0">
-        <v>0.00116</v>
+        <v>0.015914489311163897</v>
       </c>
       <c r="D69" s="0">
-        <v>0.9598399999999999</v>
+        <v>0.45795724465558196</v>
       </c>
     </row>
     <row r="70">
@@ -1241,13 +1241,13 @@
         <v>0.68</v>
       </c>
       <c r="B70" s="0">
-        <v>20</v>
+        <v>0.68</v>
       </c>
       <c r="C70" s="0">
-        <v>0.0002</v>
+        <v>0.016152019002375298</v>
       </c>
       <c r="D70" s="0">
-        <v>0.9600399999999999</v>
+        <v>0.47410926365795725</v>
       </c>
     </row>
     <row r="71">
@@ -1255,13 +1255,13 @@
         <v>0.69</v>
       </c>
       <c r="B71" s="0">
-        <v>12</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>0.00012</v>
+        <v>0.0163895486935867</v>
       </c>
       <c r="D71" s="0">
-        <v>0.9601599999999999</v>
+        <v>0.49049881235154397</v>
       </c>
     </row>
     <row r="72">
@@ -1269,13 +1269,13 @@
         <v>0.7</v>
       </c>
       <c r="B72" s="0">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C72" s="0">
-        <v>1E-05</v>
+        <v>0.0166270783847981</v>
       </c>
       <c r="D72" s="0">
-        <v>0.9601699999999999</v>
+        <v>0.5071258907363421</v>
       </c>
     </row>
     <row r="73">
@@ -1283,13 +1283,13 @@
         <v>0.71</v>
       </c>
       <c r="B73" s="0">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="C73" s="0">
-        <v>1E-05</v>
+        <v>0.0168646080760095</v>
       </c>
       <c r="D73" s="0">
-        <v>0.9601799999999998</v>
+        <v>0.5239904988123516</v>
       </c>
     </row>
     <row r="74">
@@ -1297,13 +1297,13 @@
         <v>0.72</v>
       </c>
       <c r="B74" s="0">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="C74" s="0">
-        <v>1E-05</v>
+        <v>0.0171021377672209</v>
       </c>
       <c r="D74" s="0">
-        <v>0.9601899999999998</v>
+        <v>0.5410926365795725</v>
       </c>
     </row>
     <row r="75">
@@ -1311,13 +1311,13 @@
         <v>0.73</v>
       </c>
       <c r="B75" s="0">
-        <v>1</v>
+        <v>0.7300000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>1E-05</v>
+        <v>0.017339667458432306</v>
       </c>
       <c r="D75" s="0">
-        <v>0.9601999999999997</v>
+        <v>0.5584323040380048</v>
       </c>
     </row>
     <row r="76">
@@ -1325,13 +1325,13 @@
         <v>0.74</v>
       </c>
       <c r="B76" s="0">
-        <v>9</v>
+        <v>0.74</v>
       </c>
       <c r="C76" s="0">
-        <v>9E-05</v>
+        <v>0.017577197149643703</v>
       </c>
       <c r="D76" s="0">
-        <v>0.9602899999999998</v>
+        <v>0.5760095011876485</v>
       </c>
     </row>
     <row r="77">
@@ -1339,13 +1339,13 @@
         <v>0.75</v>
       </c>
       <c r="B77" s="0">
-        <v>144</v>
+        <v>0.75</v>
       </c>
       <c r="C77" s="0">
-        <v>0.00144</v>
+        <v>0.017814726840855107</v>
       </c>
       <c r="D77" s="0">
-        <v>0.9617299999999998</v>
+        <v>0.5938242280285035</v>
       </c>
     </row>
     <row r="78">
@@ -1353,13 +1353,13 @@
         <v>0.76</v>
       </c>
       <c r="B78" s="0">
-        <v>22</v>
+        <v>0.76</v>
       </c>
       <c r="C78" s="0">
-        <v>0.00022</v>
+        <v>0.018052256532066508</v>
       </c>
       <c r="D78" s="0">
-        <v>0.9619499999999997</v>
+        <v>0.6118764845605701</v>
       </c>
     </row>
     <row r="79">
@@ -1367,13 +1367,13 @@
         <v>0.77</v>
       </c>
       <c r="B79" s="0">
-        <v>7</v>
+        <v>0.7700000000000001</v>
       </c>
       <c r="C79" s="0">
-        <v>7E-05</v>
+        <v>0.018289786223277912</v>
       </c>
       <c r="D79" s="0">
-        <v>0.9620199999999998</v>
+        <v>0.630166270783848</v>
       </c>
     </row>
     <row r="80">
@@ -1381,13 +1381,13 @@
         <v>0.78</v>
       </c>
       <c r="B80" s="0">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="C80" s="0">
-        <v>0</v>
+        <v>0.01852731591448931</v>
       </c>
       <c r="D80" s="0">
-        <v>0.9620199999999998</v>
+        <v>0.6486935866983373</v>
       </c>
     </row>
     <row r="81">
@@ -1395,13 +1395,13 @@
         <v>0.79</v>
       </c>
       <c r="B81" s="0">
-        <v>6</v>
+        <v>0.79</v>
       </c>
       <c r="C81" s="0">
-        <v>6E-05</v>
+        <v>0.018764845605700714</v>
       </c>
       <c r="D81" s="0">
-        <v>0.9620799999999997</v>
+        <v>0.667458432304038</v>
       </c>
     </row>
     <row r="82">
@@ -1409,13 +1409,13 @@
         <v>0.8</v>
       </c>
       <c r="B82" s="0">
-        <v>163</v>
+        <v>0.8</v>
       </c>
       <c r="C82" s="0">
-        <v>0.00163</v>
+        <v>0.019002375296912115</v>
       </c>
       <c r="D82" s="0">
-        <v>0.9637099999999997</v>
+        <v>0.6864608076009501</v>
       </c>
     </row>
     <row r="83">
@@ -1423,13 +1423,13 @@
         <v>0.81</v>
       </c>
       <c r="B83" s="0">
-        <v>12</v>
+        <v>0.81</v>
       </c>
       <c r="C83" s="0">
-        <v>0.00012</v>
+        <v>0.019239904988123516</v>
       </c>
       <c r="D83" s="0">
-        <v>0.9638299999999997</v>
+        <v>0.7057007125890736</v>
       </c>
     </row>
     <row r="84">
@@ -1437,13 +1437,13 @@
         <v>0.82</v>
       </c>
       <c r="B84" s="0">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="C84" s="0">
-        <v>0</v>
+        <v>0.019477434679334917</v>
       </c>
       <c r="D84" s="0">
-        <v>0.9638299999999997</v>
+        <v>0.7251781472684086</v>
       </c>
     </row>
     <row r="85">
@@ -1451,13 +1451,13 @@
         <v>0.83</v>
       </c>
       <c r="B85" s="0">
-        <v>160</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="C85" s="0">
-        <v>0.0016</v>
+        <v>0.019714964370546314</v>
       </c>
       <c r="D85" s="0">
-        <v>0.9654299999999998</v>
+        <v>0.7448931116389549</v>
       </c>
     </row>
     <row r="86">
@@ -1465,13 +1465,13 @@
         <v>0.84</v>
       </c>
       <c r="B86" s="0">
-        <v>18</v>
+        <v>0.84</v>
       </c>
       <c r="C86" s="0">
-        <v>0.00018</v>
+        <v>0.019952494061757718</v>
       </c>
       <c r="D86" s="0">
-        <v>0.9656099999999997</v>
+        <v>0.7648456057007126</v>
       </c>
     </row>
     <row r="87">
@@ -1479,13 +1479,13 @@
         <v>0.85</v>
       </c>
       <c r="B87" s="0">
-        <v>149</v>
+        <v>0.85</v>
       </c>
       <c r="C87" s="0">
-        <v>0.00149</v>
+        <v>0.02019002375296912</v>
       </c>
       <c r="D87" s="0">
-        <v>0.9670999999999997</v>
+        <v>0.7850356294536817</v>
       </c>
     </row>
     <row r="88">
@@ -1493,13 +1493,13 @@
         <v>0.86</v>
       </c>
       <c r="B88" s="0">
-        <v>36</v>
+        <v>0.86</v>
       </c>
       <c r="C88" s="0">
-        <v>0.00036</v>
+        <v>0.02042755344418052</v>
       </c>
       <c r="D88" s="0">
-        <v>0.9674599999999998</v>
+        <v>0.8054631828978622</v>
       </c>
     </row>
     <row r="89">
@@ -1507,13 +1507,13 @@
         <v>0.87</v>
       </c>
       <c r="B89" s="0">
-        <v>180</v>
+        <v>0.87</v>
       </c>
       <c r="C89" s="0">
-        <v>0.0018</v>
+        <v>0.020665083135391924</v>
       </c>
       <c r="D89" s="0">
-        <v>0.9692599999999998</v>
+        <v>0.8261282660332542</v>
       </c>
     </row>
     <row r="90">
@@ -1521,13 +1521,13 @@
         <v>0.88</v>
       </c>
       <c r="B90" s="0">
-        <v>106</v>
+        <v>0.88</v>
       </c>
       <c r="C90" s="0">
-        <v>0.00106</v>
+        <v>0.020902612826603325</v>
       </c>
       <c r="D90" s="0">
-        <v>0.9703199999999997</v>
+        <v>0.8470308788598575</v>
       </c>
     </row>
     <row r="91">
@@ -1535,13 +1535,13 @@
         <v>0.89</v>
       </c>
       <c r="B91" s="0">
-        <v>66</v>
+        <v>0.89</v>
       </c>
       <c r="C91" s="0">
-        <v>0.00066</v>
+        <v>0.021140142517814726</v>
       </c>
       <c r="D91" s="0">
-        <v>0.9709799999999997</v>
+        <v>0.8681710213776722</v>
       </c>
     </row>
     <row r="92">
@@ -1549,13 +1549,13 @@
         <v>0.9</v>
       </c>
       <c r="B92" s="0">
-        <v>323</v>
+        <v>0.9</v>
       </c>
       <c r="C92" s="0">
-        <v>0.00323</v>
+        <v>0.021377672209026127</v>
       </c>
       <c r="D92" s="0">
-        <v>0.9742099999999997</v>
+        <v>0.8895486935866983</v>
       </c>
     </row>
     <row r="93">
@@ -1563,13 +1563,13 @@
         <v>0.91</v>
       </c>
       <c r="B93" s="0">
-        <v>225</v>
+        <v>0.91</v>
       </c>
       <c r="C93" s="0">
-        <v>0.00225</v>
+        <v>0.02161520190023753</v>
       </c>
       <c r="D93" s="0">
-        <v>0.9764599999999997</v>
+        <v>0.9111638954869359</v>
       </c>
     </row>
     <row r="94">
@@ -1577,13 +1577,13 @@
         <v>0.92</v>
       </c>
       <c r="B94" s="0">
-        <v>366</v>
+        <v>0.92</v>
       </c>
       <c r="C94" s="0">
-        <v>0.00366</v>
+        <v>0.021852731591448932</v>
       </c>
       <c r="D94" s="0">
-        <v>0.9801199999999997</v>
+        <v>0.9330166270783848</v>
       </c>
     </row>
     <row r="95">
@@ -1591,13 +1591,13 @@
         <v>0.93</v>
       </c>
       <c r="B95" s="0">
-        <v>376</v>
+        <v>0.93</v>
       </c>
       <c r="C95" s="0">
-        <v>0.00376</v>
+        <v>0.022090261282660333</v>
       </c>
       <c r="D95" s="0">
-        <v>0.9838799999999996</v>
+        <v>0.9551068883610452</v>
       </c>
     </row>
     <row r="96">
@@ -1605,13 +1605,13 @@
         <v>0.94</v>
       </c>
       <c r="B96" s="0">
-        <v>561</v>
+        <v>0.94</v>
       </c>
       <c r="C96" s="0">
-        <v>0.00561</v>
+        <v>0.022327790973871733</v>
       </c>
       <c r="D96" s="0">
-        <v>0.9894899999999996</v>
+        <v>0.9774346793349169</v>
       </c>
     </row>
     <row r="97">
@@ -1619,13 +1619,13 @@
         <v>0.95</v>
       </c>
       <c r="B97" s="0">
-        <v>872</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="C97" s="0">
-        <v>0.00872</v>
+        <v>0.02256532066508313</v>
       </c>
       <c r="D97" s="0">
-        <v>0.9982099999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1633,13 +1633,13 @@
         <v>0.96</v>
       </c>
       <c r="B98" s="0">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C98" s="0">
-        <v>0.00179</v>
+        <v>0</v>
       </c>
       <c r="D98" s="0">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="0">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="0">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="0">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,15 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Research report" sheetId="1" r:id="rId1"/>
-    <sheet name="Source" sheetId="2" r:id="rId2"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Report_source" sheetId="2" r:id="rId2"/>
+    <sheet name="Changed Report" sheetId="3" r:id="rId4"/>
+    <sheet name="Changed Report_source" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Accuracy</t>
   </si>
@@ -21,10 +23,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>Sum</t>
+    <t>Changed count</t>
   </si>
 </sst>
 </file>
@@ -93,7 +92,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Distribution of continued fractions</a:t>
+              <a:t>Default Allocation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -129,12 +128,153 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Source!$A$2:$A$102</c:f>
+              <c:f>Report_source!$A$2:$A$102</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Source!$C$2:$C$102</c:f>
+              <c:f>Report_source!$B$2:$B$102</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:smooth val="0"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchorCtr="1" anchor="ctr" wrap="square" vert="horz" vertOverflow="ellipsis" spcFirstLastPara="1" rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Changed Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Changed Report_source'!$A$2:$A$102</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Changed Report_source'!$B$2:$B$102</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -232,7 +372,42 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Continued fractions count"/>
+        <xdr:cNvPr id="2" name="Report"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Changed Report"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -264,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,24 +452,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -303,13 +466,7 @@
         <v>0.01</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
+        <v>50379</v>
       </c>
     </row>
     <row r="4">
@@ -317,13 +474,7 @@
         <v>0.02</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
+        <v>16192</v>
       </c>
     </row>
     <row r="5">
@@ -331,13 +482,7 @@
         <v>0.03</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="6">
@@ -345,13 +490,7 @@
         <v>0.04</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="7">
@@ -359,13 +498,7 @@
         <v>0.05</v>
       </c>
       <c r="B7" s="0">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.0011876484560570072</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.0011876484560570072</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="8">
@@ -373,13 +506,7 @@
         <v>0.06</v>
       </c>
       <c r="B8" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.0014251781472684084</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.0026128266033254156</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9">
@@ -387,13 +514,7 @@
         <v>0.07</v>
       </c>
       <c r="B9" s="0">
-        <v>0.07</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.0016627078384798101</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.004275534441805225</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="10">
@@ -401,13 +522,7 @@
         <v>0.08</v>
       </c>
       <c r="B10" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.0019002375296912114</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.006175771971496437</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11">
@@ -415,13 +530,7 @@
         <v>0.09</v>
       </c>
       <c r="B11" s="0">
-        <v>0.09</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.0021377672209026127</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.00831353919239905</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="12">
@@ -429,13 +538,7 @@
         <v>0.1</v>
       </c>
       <c r="B12" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0.0023752969121140144</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.010688836104513065</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -443,13 +546,7 @@
         <v>0.11</v>
       </c>
       <c r="B13" s="0">
-        <v>0.11</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.0026128266033254156</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.013301662707838481</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14">
@@ -457,13 +554,7 @@
         <v>0.12</v>
       </c>
       <c r="B14" s="0">
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0.0028503562945368164</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.016152019002375298</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15">
@@ -471,13 +562,7 @@
         <v>0.13</v>
       </c>
       <c r="B15" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0.0030878859857482186</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.019239904988123516</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -485,13 +570,7 @@
         <v>0.14</v>
       </c>
       <c r="B16" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0.0033254156769596203</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.022565320665083134</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17">
@@ -499,13 +578,7 @@
         <v>0.15</v>
       </c>
       <c r="B17" s="0">
-        <v>0.15</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0.003562945368171021</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0.026128266033254154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -513,13 +586,7 @@
         <v>0.16</v>
       </c>
       <c r="B18" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="C18" s="0">
-        <v>0.003800475059382423</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0.029928741092636577</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19">
@@ -527,13 +594,7 @@
         <v>0.17</v>
       </c>
       <c r="B19" s="0">
-        <v>0.17</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0.0040380047505938245</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0.0339667458432304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -541,13 +602,7 @@
         <v>0.18</v>
       </c>
       <c r="B20" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0.004275534441805225</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.038242280285035624</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -555,13 +610,7 @@
         <v>0.19</v>
       </c>
       <c r="B21" s="0">
-        <v>0.19</v>
-      </c>
-      <c r="C21" s="0">
-        <v>0.004513064133016627</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0.04275534441805225</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -569,13 +618,7 @@
         <v>0.2</v>
       </c>
       <c r="B22" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="0">
-        <v>0.004750593824228029</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0.047505938242280284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -583,13 +626,7 @@
         <v>0.21</v>
       </c>
       <c r="B23" s="0">
-        <v>0.21</v>
-      </c>
-      <c r="C23" s="0">
-        <v>0.0049881235154394295</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0.052494061757719715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -597,13 +634,7 @@
         <v>0.22</v>
       </c>
       <c r="B24" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="C24" s="0">
-        <v>0.005225653206650831</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0.05771971496437055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -611,13 +642,7 @@
         <v>0.23</v>
       </c>
       <c r="B25" s="0">
-        <v>0.23</v>
-      </c>
-      <c r="C25" s="0">
-        <v>0.005463182897862233</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0.06318289786223277</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -625,13 +650,7 @@
         <v>0.24</v>
       </c>
       <c r="B26" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="C26" s="0">
-        <v>0.005700712589073634</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0.0688836104513064</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27">
@@ -639,13 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="B27" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="C27" s="0">
-        <v>0.0059382422802850355</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0.07482185273159145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -653,13 +666,7 @@
         <v>0.26</v>
       </c>
       <c r="B28" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="C28" s="0">
-        <v>0.006175771971496437</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0.08099762470308788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -667,13 +674,7 @@
         <v>0.27</v>
       </c>
       <c r="B29" s="0">
-        <v>0.27</v>
-      </c>
-      <c r="C29" s="0">
-        <v>0.006413301662707839</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0.08741092636579573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -681,13 +682,7 @@
         <v>0.28</v>
       </c>
       <c r="B30" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="C30" s="0">
-        <v>0.0066508313539192405</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0.09406175771971496</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -695,13 +690,7 @@
         <v>0.29</v>
       </c>
       <c r="B31" s="0">
-        <v>0.29</v>
-      </c>
-      <c r="C31" s="0">
-        <v>0.0068883610451306405</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0.10095011876484561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -709,13 +698,7 @@
         <v>0.3</v>
       </c>
       <c r="B32" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="C32" s="0">
-        <v>0.007125890736342042</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0.10807600950118765</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -723,13 +706,7 @@
         <v>0.31</v>
       </c>
       <c r="B33" s="0">
-        <v>0.31</v>
-      </c>
-      <c r="C33" s="0">
-        <v>0.007363420427553444</v>
-      </c>
-      <c r="D33" s="0">
-        <v>0.1154394299287411</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -737,13 +714,7 @@
         <v>0.32</v>
       </c>
       <c r="B34" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0.007600950118764846</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0.12304038004750593</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
@@ -751,13 +722,7 @@
         <v>0.33</v>
       </c>
       <c r="B35" s="0">
-        <v>0.33</v>
-      </c>
-      <c r="C35" s="0">
-        <v>0.007838479809976246</v>
-      </c>
-      <c r="D35" s="0">
-        <v>0.13087885985748218</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36">
@@ -765,13 +730,7 @@
         <v>0.34</v>
       </c>
       <c r="B36" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="C36" s="0">
-        <v>0.008076009501187649</v>
-      </c>
-      <c r="D36" s="0">
-        <v>0.13895486935866982</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -779,13 +738,7 @@
         <v>0.35</v>
       </c>
       <c r="B37" s="0">
-        <v>0.35</v>
-      </c>
-      <c r="C37" s="0">
-        <v>0.00831353919239905</v>
-      </c>
-      <c r="D37" s="0">
-        <v>0.14726840855106887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -793,13 +746,7 @@
         <v>0.36</v>
       </c>
       <c r="B38" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="C38" s="0">
-        <v>0.00855106888361045</v>
-      </c>
-      <c r="D38" s="0">
-        <v>0.15581947743467933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -807,13 +754,7 @@
         <v>0.37</v>
       </c>
       <c r="B39" s="0">
-        <v>0.37</v>
-      </c>
-      <c r="C39" s="0">
-        <v>0.008788598574821851</v>
-      </c>
-      <c r="D39" s="0">
-        <v>0.16460807600950117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -821,13 +762,7 @@
         <v>0.38</v>
       </c>
       <c r="B40" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="C40" s="0">
-        <v>0.009026128266033254</v>
-      </c>
-      <c r="D40" s="0">
-        <v>0.17363420427553442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -835,13 +770,7 @@
         <v>0.39</v>
       </c>
       <c r="B41" s="0">
-        <v>0.39</v>
-      </c>
-      <c r="C41" s="0">
-        <v>0.009263657957244655</v>
-      </c>
-      <c r="D41" s="0">
-        <v>0.18289786223277907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -849,13 +778,7 @@
         <v>0.4</v>
       </c>
       <c r="B42" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="C42" s="0">
-        <v>0.009501187648456057</v>
-      </c>
-      <c r="D42" s="0">
-        <v>0.19239904988123513</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -863,13 +786,7 @@
         <v>0.41</v>
       </c>
       <c r="B43" s="0">
-        <v>0.41</v>
-      </c>
-      <c r="C43" s="0">
-        <v>0.009738717339667458</v>
-      </c>
-      <c r="D43" s="0">
-        <v>0.2021377672209026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -877,13 +794,7 @@
         <v>0.42</v>
       </c>
       <c r="B44" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="C44" s="0">
-        <v>0.009976247030878859</v>
-      </c>
-      <c r="D44" s="0">
-        <v>0.21211401425178145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -891,13 +802,7 @@
         <v>0.43</v>
       </c>
       <c r="B45" s="0">
-        <v>0.43</v>
-      </c>
-      <c r="C45" s="0">
-        <v>0.01021377672209026</v>
-      </c>
-      <c r="D45" s="0">
-        <v>0.2223277909738717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -905,13 +810,7 @@
         <v>0.44</v>
       </c>
       <c r="B46" s="0">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="C46" s="0">
-        <v>0.010451306413301664</v>
-      </c>
-      <c r="D46" s="0">
-        <v>0.23277909738717337</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -919,13 +818,7 @@
         <v>0.45</v>
       </c>
       <c r="B47" s="0">
-        <v>0.45</v>
-      </c>
-      <c r="C47" s="0">
-        <v>0.010688836104513063</v>
-      </c>
-      <c r="D47" s="0">
-        <v>0.24346793349168644</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -933,13 +826,7 @@
         <v>0.46</v>
       </c>
       <c r="B48" s="0">
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="C48" s="0">
-        <v>0.010926365795724464</v>
-      </c>
-      <c r="D48" s="0">
-        <v>0.2543942992874109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -947,13 +834,7 @@
         <v>0.47</v>
       </c>
       <c r="B49" s="0">
-        <v>0.47</v>
-      </c>
-      <c r="C49" s="0">
-        <v>0.011163895486935867</v>
-      </c>
-      <c r="D49" s="0">
-        <v>0.2655581947743468</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -961,13 +842,7 @@
         <v>0.48</v>
       </c>
       <c r="B50" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="C50" s="0">
-        <v>0.011401425178147268</v>
-      </c>
-      <c r="D50" s="0">
-        <v>0.2769596199524941</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
@@ -975,13 +850,7 @@
         <v>0.49</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0">
-        <v>0.2769596199524941</v>
+        <v>778</v>
       </c>
     </row>
     <row r="52">
@@ -989,13 +858,7 @@
         <v>0.5</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0">
-        <v>0.2769596199524941</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1003,13 +866,7 @@
         <v>0.51</v>
       </c>
       <c r="B53" s="0">
-        <v>0.51</v>
-      </c>
-      <c r="C53" s="0">
-        <v>0.012114014251781472</v>
-      </c>
-      <c r="D53" s="0">
-        <v>0.28907363420427556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1017,13 +874,7 @@
         <v>0.52</v>
       </c>
       <c r="B54" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="C54" s="0">
-        <v>0.012351543942992874</v>
-      </c>
-      <c r="D54" s="0">
-        <v>0.30142517814726844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1031,13 +882,7 @@
         <v>0.53</v>
       </c>
       <c r="B55" s="0">
-        <v>0.53</v>
-      </c>
-      <c r="C55" s="0">
-        <v>0.012589073634204275</v>
-      </c>
-      <c r="D55" s="0">
-        <v>0.3140142517814727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1045,13 +890,7 @@
         <v>0.54</v>
       </c>
       <c r="B56" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="C56" s="0">
-        <v>0.012826603325415678</v>
-      </c>
-      <c r="D56" s="0">
-        <v>0.3268408551068884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1059,13 +898,7 @@
         <v>0.55</v>
       </c>
       <c r="B57" s="0">
-        <v>0.55</v>
-      </c>
-      <c r="C57" s="0">
-        <v>0.013064133016627079</v>
-      </c>
-      <c r="D57" s="0">
-        <v>0.33990498812351544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1073,13 +906,7 @@
         <v>0.56</v>
       </c>
       <c r="B58" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="C58" s="0">
-        <v>0.013301662707838481</v>
-      </c>
-      <c r="D58" s="0">
-        <v>0.35320665083135394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1087,13 +914,7 @@
         <v>0.57</v>
       </c>
       <c r="B59" s="0">
-        <v>0.57</v>
-      </c>
-      <c r="C59" s="0">
-        <v>0.01353919239904988</v>
-      </c>
-      <c r="D59" s="0">
-        <v>0.3667458432304038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1103,25 +924,13 @@
       <c r="B60" s="0">
         <v>0</v>
       </c>
-      <c r="C60" s="0">
-        <v>0</v>
-      </c>
-      <c r="D60" s="0">
-        <v>0.3667458432304038</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
         <v>0.59</v>
       </c>
       <c r="B61" s="0">
-        <v>0.59</v>
-      </c>
-      <c r="C61" s="0">
-        <v>0.014014251781472684</v>
-      </c>
-      <c r="D61" s="0">
-        <v>0.3807600950118765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1131,12 +940,6 @@
       <c r="B62" s="0">
         <v>0</v>
       </c>
-      <c r="C62" s="0">
-        <v>0</v>
-      </c>
-      <c r="D62" s="0">
-        <v>0.3807600950118765</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -1145,12 +948,6 @@
       <c r="B63" s="0">
         <v>0</v>
       </c>
-      <c r="C63" s="0">
-        <v>0</v>
-      </c>
-      <c r="D63" s="0">
-        <v>0.3807600950118765</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -1159,25 +956,13 @@
       <c r="B64" s="0">
         <v>0</v>
       </c>
-      <c r="C64" s="0">
-        <v>0</v>
-      </c>
-      <c r="D64" s="0">
-        <v>0.3807600950118765</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
         <v>0.63</v>
       </c>
       <c r="B65" s="0">
-        <v>0.63</v>
-      </c>
-      <c r="C65" s="0">
-        <v>0.014964370546318289</v>
-      </c>
-      <c r="D65" s="0">
-        <v>0.3957244655581948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1185,13 +970,7 @@
         <v>0.64</v>
       </c>
       <c r="B66" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="C66" s="0">
-        <v>0.015201900237529691</v>
-      </c>
-      <c r="D66" s="0">
-        <v>0.4109263657957245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1199,13 +978,7 @@
         <v>0.65</v>
       </c>
       <c r="B67" s="0">
-        <v>0.65</v>
-      </c>
-      <c r="C67" s="0">
-        <v>0.015439429928741092</v>
-      </c>
-      <c r="D67" s="0">
-        <v>0.4263657957244656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1213,13 +986,7 @@
         <v>0.66</v>
       </c>
       <c r="B68" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="C68" s="0">
-        <v>0.015676959619952493</v>
-      </c>
-      <c r="D68" s="0">
-        <v>0.44204275534441806</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1227,13 +994,7 @@
         <v>0.67</v>
       </c>
       <c r="B69" s="0">
-        <v>0.67</v>
-      </c>
-      <c r="C69" s="0">
-        <v>0.015914489311163897</v>
-      </c>
-      <c r="D69" s="0">
-        <v>0.45795724465558196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1241,13 +1002,7 @@
         <v>0.68</v>
       </c>
       <c r="B70" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="C70" s="0">
-        <v>0.016152019002375298</v>
-      </c>
-      <c r="D70" s="0">
-        <v>0.47410926365795725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1255,13 +1010,7 @@
         <v>0.69</v>
       </c>
       <c r="B71" s="0">
-        <v>0.6900000000000001</v>
-      </c>
-      <c r="C71" s="0">
-        <v>0.0163895486935867</v>
-      </c>
-      <c r="D71" s="0">
-        <v>0.49049881235154397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1269,13 +1018,7 @@
         <v>0.7</v>
       </c>
       <c r="B72" s="0">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="C72" s="0">
-        <v>0.0166270783847981</v>
-      </c>
-      <c r="D72" s="0">
-        <v>0.5071258907363421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1283,13 +1026,7 @@
         <v>0.71</v>
       </c>
       <c r="B73" s="0">
-        <v>0.71</v>
-      </c>
-      <c r="C73" s="0">
-        <v>0.0168646080760095</v>
-      </c>
-      <c r="D73" s="0">
-        <v>0.5239904988123516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1297,13 +1034,7 @@
         <v>0.72</v>
       </c>
       <c r="B74" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="C74" s="0">
-        <v>0.0171021377672209</v>
-      </c>
-      <c r="D74" s="0">
-        <v>0.5410926365795725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1311,13 +1042,7 @@
         <v>0.73</v>
       </c>
       <c r="B75" s="0">
-        <v>0.7300000000000001</v>
-      </c>
-      <c r="C75" s="0">
-        <v>0.017339667458432306</v>
-      </c>
-      <c r="D75" s="0">
-        <v>0.5584323040380048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1325,13 +1050,7 @@
         <v>0.74</v>
       </c>
       <c r="B76" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="C76" s="0">
-        <v>0.017577197149643703</v>
-      </c>
-      <c r="D76" s="0">
-        <v>0.5760095011876485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1339,13 +1058,7 @@
         <v>0.75</v>
       </c>
       <c r="B77" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="C77" s="0">
-        <v>0.017814726840855107</v>
-      </c>
-      <c r="D77" s="0">
-        <v>0.5938242280285035</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1353,13 +1066,7 @@
         <v>0.76</v>
       </c>
       <c r="B78" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="C78" s="0">
-        <v>0.018052256532066508</v>
-      </c>
-      <c r="D78" s="0">
-        <v>0.6118764845605701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1367,13 +1074,7 @@
         <v>0.77</v>
       </c>
       <c r="B79" s="0">
-        <v>0.7700000000000001</v>
-      </c>
-      <c r="C79" s="0">
-        <v>0.018289786223277912</v>
-      </c>
-      <c r="D79" s="0">
-        <v>0.630166270783848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1381,13 +1082,7 @@
         <v>0.78</v>
       </c>
       <c r="B80" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="C80" s="0">
-        <v>0.01852731591448931</v>
-      </c>
-      <c r="D80" s="0">
-        <v>0.6486935866983373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1395,13 +1090,7 @@
         <v>0.79</v>
       </c>
       <c r="B81" s="0">
-        <v>0.79</v>
-      </c>
-      <c r="C81" s="0">
-        <v>0.018764845605700714</v>
-      </c>
-      <c r="D81" s="0">
-        <v>0.667458432304038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1409,13 +1098,7 @@
         <v>0.8</v>
       </c>
       <c r="B82" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="C82" s="0">
-        <v>0.019002375296912115</v>
-      </c>
-      <c r="D82" s="0">
-        <v>0.6864608076009501</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -1423,13 +1106,7 @@
         <v>0.81</v>
       </c>
       <c r="B83" s="0">
-        <v>0.81</v>
-      </c>
-      <c r="C83" s="0">
-        <v>0.019239904988123516</v>
-      </c>
-      <c r="D83" s="0">
-        <v>0.7057007125890736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1437,13 +1114,7 @@
         <v>0.82</v>
       </c>
       <c r="B84" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="C84" s="0">
-        <v>0.019477434679334917</v>
-      </c>
-      <c r="D84" s="0">
-        <v>0.7251781472684086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1451,13 +1122,7 @@
         <v>0.83</v>
       </c>
       <c r="B85" s="0">
-        <v>0.8299999999999998</v>
-      </c>
-      <c r="C85" s="0">
-        <v>0.019714964370546314</v>
-      </c>
-      <c r="D85" s="0">
-        <v>0.7448931116389549</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -1465,13 +1130,7 @@
         <v>0.84</v>
       </c>
       <c r="B86" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="C86" s="0">
-        <v>0.019952494061757718</v>
-      </c>
-      <c r="D86" s="0">
-        <v>0.7648456057007126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1479,13 +1138,7 @@
         <v>0.85</v>
       </c>
       <c r="B87" s="0">
-        <v>0.85</v>
-      </c>
-      <c r="C87" s="0">
-        <v>0.02019002375296912</v>
-      </c>
-      <c r="D87" s="0">
-        <v>0.7850356294536817</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -1493,13 +1146,7 @@
         <v>0.86</v>
       </c>
       <c r="B88" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="C88" s="0">
-        <v>0.02042755344418052</v>
-      </c>
-      <c r="D88" s="0">
-        <v>0.8054631828978622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1507,13 +1154,7 @@
         <v>0.87</v>
       </c>
       <c r="B89" s="0">
-        <v>0.87</v>
-      </c>
-      <c r="C89" s="0">
-        <v>0.020665083135391924</v>
-      </c>
-      <c r="D89" s="0">
-        <v>0.8261282660332542</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -1521,13 +1162,7 @@
         <v>0.88</v>
       </c>
       <c r="B90" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="C90" s="0">
-        <v>0.020902612826603325</v>
-      </c>
-      <c r="D90" s="0">
-        <v>0.8470308788598575</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -1535,13 +1170,7 @@
         <v>0.89</v>
       </c>
       <c r="B91" s="0">
-        <v>0.89</v>
-      </c>
-      <c r="C91" s="0">
-        <v>0.021140142517814726</v>
-      </c>
-      <c r="D91" s="0">
-        <v>0.8681710213776722</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -1549,13 +1178,7 @@
         <v>0.9</v>
       </c>
       <c r="B92" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="C92" s="0">
-        <v>0.021377672209026127</v>
-      </c>
-      <c r="D92" s="0">
-        <v>0.8895486935866983</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -1563,13 +1186,7 @@
         <v>0.91</v>
       </c>
       <c r="B93" s="0">
-        <v>0.91</v>
-      </c>
-      <c r="C93" s="0">
-        <v>0.02161520190023753</v>
-      </c>
-      <c r="D93" s="0">
-        <v>0.9111638954869359</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -1577,13 +1194,7 @@
         <v>0.92</v>
       </c>
       <c r="B94" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="C94" s="0">
-        <v>0.021852731591448932</v>
-      </c>
-      <c r="D94" s="0">
-        <v>0.9330166270783848</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -1591,13 +1202,7 @@
         <v>0.93</v>
       </c>
       <c r="B95" s="0">
-        <v>0.93</v>
-      </c>
-      <c r="C95" s="0">
-        <v>0.022090261282660333</v>
-      </c>
-      <c r="D95" s="0">
-        <v>0.9551068883610452</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -1605,13 +1210,7 @@
         <v>0.94</v>
       </c>
       <c r="B96" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="C96" s="0">
-        <v>0.022327790973871733</v>
-      </c>
-      <c r="D96" s="0">
-        <v>0.9774346793349169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -1619,13 +1218,7 @@
         <v>0.95</v>
       </c>
       <c r="B97" s="0">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="C97" s="0">
-        <v>0.02256532066508313</v>
-      </c>
-      <c r="D97" s="0">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98">
@@ -1633,13 +1226,7 @@
         <v>0.96</v>
       </c>
       <c r="B98" s="0">
-        <v>0</v>
-      </c>
-      <c r="C98" s="0">
-        <v>0</v>
-      </c>
-      <c r="D98" s="0">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
@@ -1647,13 +1234,7 @@
         <v>0.97</v>
       </c>
       <c r="B99" s="0">
-        <v>0</v>
-      </c>
-      <c r="C99" s="0">
-        <v>0</v>
-      </c>
-      <c r="D99" s="0">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
@@ -1661,13 +1242,7 @@
         <v>0.98</v>
       </c>
       <c r="B100" s="0">
-        <v>0</v>
-      </c>
-      <c r="C100" s="0">
-        <v>0</v>
-      </c>
-      <c r="D100" s="0">
-        <v>1</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101">
@@ -1675,13 +1250,840 @@
         <v>0.99</v>
       </c>
       <c r="B101" s="0">
-        <v>0</v>
-      </c>
-      <c r="C101" s="0">
-        <v>0</v>
-      </c>
-      <c r="D101" s="0">
-        <v>1</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="0">
+        <v>5.0379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3.2384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.03</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2.7365999999999997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2.0352</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.541</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.2054</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.07</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.3797000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.09</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.7478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.11</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.0735999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.0819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.15</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.028499999999999998</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.5856</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.17</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.0468</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.19</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.21</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.030799999999999998</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.23</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.07590000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2.1792</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.0175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.0026000000000000003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.27</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.0364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.29</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.056999999999999995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.31</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.11159999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.8576</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2.2968</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.006800000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.35</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.37</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.39</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.41</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.43</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.0704</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.0874</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.47</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.23970000000000002</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.7056</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.49</v>
+      </c>
+      <c r="B51" s="0">
+        <v>3.8122</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.51</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.53</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.59</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.61</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.63</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0.046200000000000005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.67</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0.006700000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.69</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.71</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0.73</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0.037500000000000006</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0.77</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0.007700000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>0.79</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0.0079</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B82" s="0">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>0.81</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>0.83</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0.11049999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0.13920000000000002</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>0.89</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0.026699999999999998</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>0.91</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0.0546</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0.16560000000000002</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>0.93</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0.2325</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0.22560000000000002</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.40850000000000003</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0.9695999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>0.97</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1.5713999999999997</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B100" s="0">
+        <v>4.997999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0.1089</v>
       </c>
     </row>
   </sheetData>
